--- a/Docs/Requerimientos FUNCIONALES Y NO FUNCIONALES.xlsx
+++ b/Docs/Requerimientos FUNCIONALES Y NO FUNCIONALES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Documents\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BEB0CC6-64E2-469D-B0BD-691AEE981944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804F2E5-A266-4DBB-90DE-36B8531D8FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{965471FC-7D07-4080-9B6C-8BD88E89BE71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>IDENTIFICACIÓN</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>RNF-07</t>
-  </si>
-  <si>
-    <t>RNF-08</t>
   </si>
   <si>
     <t>Seguridad</t>
@@ -559,7 +556,7 @@
   <dimension ref="C4:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,13 +594,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
@@ -617,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -637,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -657,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
@@ -677,19 +674,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="30" x14ac:dyDescent="0.25">
@@ -697,19 +694,19 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="30" x14ac:dyDescent="0.25">
@@ -717,19 +714,19 @@
         <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="30" x14ac:dyDescent="0.25">
@@ -737,13 +734,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -757,19 +754,19 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="30" x14ac:dyDescent="0.25">
@@ -786,31 +783,16 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
